--- a/Data/Processed/Angiosperms/missing_powo_ipni/Ericaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Ericaceae.xlsx
@@ -5767,7 +5767,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -17724,7 +17724,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -17812,7 +17812,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 75(4): 448. 1952 [Jun 1952] </t>
+          <t>Bot. Jahrb. Syst. 75(4): 448. 1952 [Jun 1952]</t>
         </is>
       </c>
       <c r="J314" t="b">
@@ -17880,7 +17880,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -17890,7 +17890,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 75(4): 448. 1952 [Jun 1952] </t>
+          <t>Bot. Jahrb. Syst. 75(4): 448. 1952 [Jun 1952]</t>
         </is>
       </c>
       <c r="J315" t="b">
@@ -17958,7 +17958,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -17968,7 +17968,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 75(4): 448. 1952 [Jun 1952] </t>
+          <t>Bot. Jahrb. Syst. 75(4): 448. 1952 [Jun 1952]</t>
         </is>
       </c>
       <c r="J316" t="b">
@@ -18036,7 +18036,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -18046,7 +18046,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t xml:space="preserve">J. Bot. 55: 219. 1917 </t>
+          <t>J. Bot. 55: 219. 1917</t>
         </is>
       </c>
       <c r="J317" t="b">
@@ -18114,7 +18114,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -18124,7 +18124,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 78(4): 451. 1959 [31 Jul 1959] </t>
+          <t>Bot. Jahrb. Syst. 78(4): 451. 1959 [31 Jul 1959]</t>
         </is>
       </c>
       <c r="J318" t="b">
@@ -18192,7 +18192,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -18202,7 +18202,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 430. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 430. 1910</t>
         </is>
       </c>
       <c r="J319" t="b">
@@ -18270,7 +18270,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 13: 213. 1936 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 13: 213. 1936</t>
         </is>
       </c>
       <c r="J320" t="b">
@@ -18348,7 +18348,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revista Brasil. Bot. 4: 127, fig. 1981 </t>
+          <t>Revista Brasil. Bot. 4: 127, fig. 1981</t>
         </is>
       </c>
       <c r="J321" t="b">
@@ -18426,7 +18426,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 78(4): 451. 1959 [31 Jul 1959] </t>
+          <t>Bot. Jahrb. Syst. 78(4): 451. 1959 [31 Jul 1959]</t>
         </is>
       </c>
       <c r="J322" t="b">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -18514,7 +18514,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. Genève ser. 2, 1: 246, fig. 1909 </t>
+          <t>Bull. Soc. Bot. Genève ser. 2, 1: 246, fig. 1909</t>
         </is>
       </c>
       <c r="J323" t="b">
@@ -18582,7 +18582,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -18592,7 +18592,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 7: 163, fig. 1863 [10 Jul 1863] </t>
+          <t>Fl. Bras. (Martius) 7: 163, fig. 1863 [10 Jul 1863]</t>
         </is>
       </c>
       <c r="J324" t="b">
@@ -18660,7 +18660,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -18670,7 +18670,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 78(4): 450. 1959 [31 Jul 1959] </t>
+          <t>Bot. Jahrb. Syst. 78(4): 450. 1959 [31 Jul 1959]</t>
         </is>
       </c>
       <c r="J325" t="b">
@@ -18738,7 +18738,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -18748,7 +18748,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 12: 480. 1935 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 12: 480. 1935</t>
         </is>
       </c>
       <c r="J326" t="b">
@@ -18816,7 +18816,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -18826,7 +18826,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 12: 480. 1935 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 12: 480. 1935</t>
         </is>
       </c>
       <c r="J327" t="b">
@@ -18894,7 +18894,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 12: 481. 1935 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 12: 481. 1935</t>
         </is>
       </c>
       <c r="J328" t="b">
@@ -18972,7 +18972,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -18982,7 +18982,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flora 72 (n. s. 47): 77. 1889 </t>
+          <t>Flora 72 (n. s. 47): 77. 1889</t>
         </is>
       </c>
       <c r="J329" t="b">
@@ -19050,7 +19050,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -19060,7 +19060,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 12: 481. 1935 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 12: 481. 1935</t>
         </is>
       </c>
       <c r="J330" t="b">
@@ -19128,7 +19128,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -19138,7 +19138,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. U.S. Natl. Herb. 28: 431. 1932 </t>
+          <t>Contr. U.S. Natl. Herb. 28: 431. 1932</t>
         </is>
       </c>
       <c r="J331" t="b">
